--- a/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Mag.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Fn1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,55 +531,55 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H2">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I2">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J2">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N2">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O2">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P2">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q2">
-        <v>4.761017282261404</v>
+        <v>0.13226156045</v>
       </c>
       <c r="R2">
-        <v>4.761017282261404</v>
+        <v>1.19035404405</v>
       </c>
       <c r="S2">
-        <v>0.002506838649647666</v>
+        <v>4.52932880073726E-05</v>
       </c>
       <c r="T2">
-        <v>0.002506838649647666</v>
+        <v>5.712963189988393E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,60 +593,60 @@
         <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.8972428395816</v>
+        <v>24.721787</v>
       </c>
       <c r="H3">
-        <v>16.8972428395816</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I3">
-        <v>0.01075326293749338</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J3">
-        <v>0.01075326293749338</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N3">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O3">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P3">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q3">
-        <v>15.66170545392372</v>
+        <v>9.651566937904665</v>
       </c>
       <c r="R3">
-        <v>15.66170545392372</v>
+        <v>86.86410244114198</v>
       </c>
       <c r="S3">
-        <v>0.008246424287845711</v>
+        <v>0.00330520220352467</v>
       </c>
       <c r="T3">
-        <v>0.008246424287845711</v>
+        <v>0.004168939671840863</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H4">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I4">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J4">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N4">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O4">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P4">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q4">
-        <v>377.4840615343156</v>
+        <v>5.379988249322666</v>
       </c>
       <c r="R4">
-        <v>377.4840615343156</v>
+        <v>48.419894243904</v>
       </c>
       <c r="S4">
-        <v>0.1987582860927418</v>
+        <v>0.001842389855554225</v>
       </c>
       <c r="T4">
-        <v>0.1987582860927418</v>
+        <v>0.002323855451756126</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -720,57 +720,57 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1339.72205469232</v>
+        <v>24.721787</v>
       </c>
       <c r="H5">
-        <v>1339.72205469232</v>
+        <v>74.16536099999999</v>
       </c>
       <c r="I5">
-        <v>0.8525878247733181</v>
+        <v>0.01340847400407589</v>
       </c>
       <c r="J5">
-        <v>0.8525878247733181</v>
+        <v>0.01345828544885583</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.926879349643739</v>
+        <v>0.9704174999999999</v>
       </c>
       <c r="N5">
-        <v>0.926879349643739</v>
+        <v>1.940835</v>
       </c>
       <c r="O5">
-        <v>0.7668764667785554</v>
+        <v>0.6127161565508692</v>
       </c>
       <c r="P5">
-        <v>0.7668764667785554</v>
+        <v>0.513316552811434</v>
       </c>
       <c r="Q5">
-        <v>1241.760706756591</v>
+        <v>23.99045473607249</v>
       </c>
       <c r="R5">
-        <v>1241.760706756591</v>
+        <v>143.942728416435</v>
       </c>
       <c r="S5">
-        <v>0.6538295386805762</v>
+        <v>0.008215588656989625</v>
       </c>
       <c r="T5">
-        <v>0.6538295386805762</v>
+        <v>0.006908360693358956</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>25</v>
@@ -779,184 +779,184 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H6">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I6">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J6">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N6">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O6">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P6">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q6">
-        <v>15.45452106786152</v>
+        <v>7.801803273316666</v>
       </c>
       <c r="R6">
-        <v>15.45452106786152</v>
+        <v>70.21622945984998</v>
       </c>
       <c r="S6">
-        <v>0.008137334613141244</v>
+        <v>0.002671746208292933</v>
       </c>
       <c r="T6">
-        <v>0.008137334613141244</v>
+        <v>0.003369944734081585</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>24</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>54.8493693618876</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H7">
-        <v>54.8493693618876</v>
+        <v>4374.842957</v>
       </c>
       <c r="I7">
-        <v>0.03490567640552861</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J7">
-        <v>0.03490567640552861</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.926879349643739</v>
+        <v>0.3904073333333333</v>
       </c>
       <c r="N7">
-        <v>0.926879349643739</v>
+        <v>1.171222</v>
       </c>
       <c r="O7">
-        <v>0.7668764667785554</v>
+        <v>0.2465009964981815</v>
       </c>
       <c r="P7">
-        <v>0.7668764667785554</v>
+        <v>0.3097675173916965</v>
       </c>
       <c r="Q7">
-        <v>50.8387478025156</v>
+        <v>569.3235908648281</v>
       </c>
       <c r="R7">
-        <v>50.8387478025156</v>
+        <v>5123.912317783454</v>
       </c>
       <c r="S7">
-        <v>0.02676834179238736</v>
+        <v>0.1949662266398297</v>
       </c>
       <c r="T7">
-        <v>0.02676834179238736</v>
+        <v>0.2459161003950469</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
         <v>23</v>
       </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>139.42070551673</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H8">
-        <v>139.42070551673</v>
+        <v>4374.842957</v>
       </c>
       <c r="I8">
-        <v>0.0887261619890026</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J8">
-        <v>0.0887261619890026</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.281762967335048</v>
+        <v>0.2176213333333333</v>
       </c>
       <c r="N8">
-        <v>0.281762967335048</v>
+        <v>0.652864</v>
       </c>
       <c r="O8">
-        <v>0.2331235332214446</v>
+        <v>0.1374048870135541</v>
       </c>
       <c r="P8">
-        <v>0.2331235332214446</v>
+        <v>0.1726709884841751</v>
       </c>
       <c r="Q8">
-        <v>39.28359169433975</v>
+        <v>317.3530524754275</v>
       </c>
       <c r="R8">
-        <v>39.28359169433975</v>
+        <v>2856.177472278848</v>
       </c>
       <c r="S8">
-        <v>0.02068415637205452</v>
+        <v>0.108678312556446</v>
       </c>
       <c r="T8">
-        <v>0.02068415637205452</v>
+        <v>0.1370788535122393</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -968,57 +968,57 @@
         <v>24</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>139.42070551673</v>
+        <v>1458.280985666667</v>
       </c>
       <c r="H9">
-        <v>139.42070551673</v>
+        <v>4374.842957</v>
       </c>
       <c r="I9">
-        <v>0.0887261619890026</v>
+        <v>0.7909348416823457</v>
       </c>
       <c r="J9">
-        <v>0.0887261619890026</v>
+        <v>0.7938731034993884</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.926879349643739</v>
+        <v>0.9704174999999999</v>
       </c>
       <c r="N9">
-        <v>0.926879349643739</v>
+        <v>1.940835</v>
       </c>
       <c r="O9">
-        <v>0.7668764667785554</v>
+        <v>0.6127161565508692</v>
       </c>
       <c r="P9">
-        <v>0.7668764667785554</v>
+        <v>0.513316552811434</v>
       </c>
       <c r="Q9">
-        <v>129.226172856218</v>
+        <v>1415.141388408182</v>
       </c>
       <c r="R9">
-        <v>129.226172856218</v>
+        <v>8490.848330449095</v>
       </c>
       <c r="S9">
-        <v>0.06804200561694808</v>
+        <v>0.4846185562777771</v>
       </c>
       <c r="T9">
-        <v>0.06804200561694808</v>
+        <v>0.4075082048580208</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>25</v>
@@ -1027,117 +1027,737 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>20.4702174927483</v>
+        <v>60.09979000000001</v>
       </c>
       <c r="H10">
-        <v>20.4702174927483</v>
+        <v>180.29937</v>
       </c>
       <c r="I10">
-        <v>0.01302707389465733</v>
+        <v>0.03259661091107292</v>
       </c>
       <c r="J10">
-        <v>0.01302707389465733</v>
+        <v>0.03271770480169137</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.281762967335048</v>
+        <v>0.00535</v>
       </c>
       <c r="N10">
-        <v>0.281762967335048</v>
+        <v>0.01605</v>
       </c>
       <c r="O10">
-        <v>0.2331235332214446</v>
+        <v>0.003377959937395142</v>
       </c>
       <c r="P10">
-        <v>0.2331235332214446</v>
+        <v>0.004244941312694543</v>
       </c>
       <c r="Q10">
-        <v>5.767749222750568</v>
+        <v>0.3215338765</v>
       </c>
       <c r="R10">
-        <v>5.767749222750568</v>
+        <v>2.8938048885</v>
       </c>
       <c r="S10">
-        <v>0.003036917493859361</v>
+        <v>0.0001101100457524617</v>
       </c>
       <c r="T10">
-        <v>0.003036917493859361</v>
+        <v>0.0001388847367692443</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H11">
+        <v>180.29937</v>
+      </c>
+      <c r="I11">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J11">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N11">
+        <v>1.171222</v>
+      </c>
+      <c r="O11">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P11">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q11">
+        <v>23.46339874779333</v>
+      </c>
+      <c r="R11">
+        <v>211.17058873014</v>
+      </c>
+      <c r="S11">
+        <v>0.00803509707204297</v>
+      </c>
+      <c r="T11">
+        <v>0.01013488219117432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H12">
+        <v>180.29937</v>
+      </c>
+      <c r="I12">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J12">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N12">
+        <v>0.652864</v>
+      </c>
+      <c r="O12">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P12">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q12">
+        <v>13.07899643285334</v>
+      </c>
+      <c r="R12">
+        <v>117.71096789568</v>
+      </c>
+      <c r="S12">
+        <v>0.004478933639260757</v>
+      </c>
+      <c r="T12">
+        <v>0.005649398429041491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>60.09979000000001</v>
+      </c>
+      <c r="H13">
+        <v>180.29937</v>
+      </c>
+      <c r="I13">
+        <v>0.03259661091107292</v>
+      </c>
+      <c r="J13">
+        <v>0.03271770480169137</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N13">
+        <v>1.940835</v>
+      </c>
+      <c r="O13">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P13">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q13">
+        <v>58.321887962325</v>
+      </c>
+      <c r="R13">
+        <v>349.93132777395</v>
+      </c>
+      <c r="S13">
+        <v>0.01997247015401673</v>
+      </c>
+      <c r="T13">
+        <v>0.01679453944470631</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>280.168911</v>
+      </c>
+      <c r="H14">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I14">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J14">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.00535</v>
+      </c>
+      <c r="N14">
+        <v>0.01605</v>
+      </c>
+      <c r="O14">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P14">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q14">
+        <v>1.49890367385</v>
+      </c>
+      <c r="R14">
+        <v>13.49013306465</v>
+      </c>
+      <c r="S14">
+        <v>0.0005133031514523989</v>
+      </c>
+      <c r="T14">
+        <v>0.0006474429520495967</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>280.168911</v>
+      </c>
+      <c r="H15">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I15">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J15">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N15">
+        <v>1.171222</v>
+      </c>
+      <c r="O15">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P15">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q15">
+        <v>109.379997426414</v>
+      </c>
+      <c r="R15">
+        <v>984.419976837726</v>
+      </c>
+      <c r="S15">
+        <v>0.03745744197198639</v>
+      </c>
+      <c r="T15">
+        <v>0.04724607035423257</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>280.168911</v>
+      </c>
+      <c r="H16">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I16">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J16">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N16">
+        <v>0.652864</v>
+      </c>
+      <c r="O16">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P16">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q16">
+        <v>60.97073197036801</v>
+      </c>
+      <c r="R16">
+        <v>548.736587733312</v>
+      </c>
+      <c r="S16">
+        <v>0.02087957312584542</v>
+      </c>
+      <c r="T16">
+        <v>0.02633596233314068</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
         <v>24</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="H11">
-        <v>20.4702174927483</v>
-      </c>
-      <c r="I11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="J11">
-        <v>0.01302707389465733</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="N11">
-        <v>0.926879349643739</v>
-      </c>
-      <c r="O11">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="P11">
-        <v>0.7668764667785554</v>
-      </c>
-      <c r="Q11">
-        <v>18.97342187674444</v>
-      </c>
-      <c r="R11">
-        <v>18.97342187674444</v>
-      </c>
-      <c r="S11">
-        <v>0.009990156400797966</v>
-      </c>
-      <c r="T11">
-        <v>0.009990156400797966</v>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>280.168911</v>
+      </c>
+      <c r="H17">
+        <v>840.5067330000001</v>
+      </c>
+      <c r="I17">
+        <v>0.1519565539454633</v>
+      </c>
+      <c r="J17">
+        <v>0.152521060800867</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N17">
+        <v>1.940835</v>
+      </c>
+      <c r="O17">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P17">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q17">
+        <v>271.8808141903425</v>
+      </c>
+      <c r="R17">
+        <v>1631.284885142055</v>
+      </c>
+      <c r="S17">
+        <v>0.09310623569617911</v>
+      </c>
+      <c r="T17">
+        <v>0.07829158516144419</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>20.472042</v>
+      </c>
+      <c r="H18">
+        <v>40.944084</v>
+      </c>
+      <c r="I18">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J18">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.00535</v>
+      </c>
+      <c r="N18">
+        <v>0.01605</v>
+      </c>
+      <c r="O18">
+        <v>0.003377959937395142</v>
+      </c>
+      <c r="P18">
+        <v>0.004244941312694543</v>
+      </c>
+      <c r="Q18">
+        <v>0.1095254247</v>
+      </c>
+      <c r="R18">
+        <v>0.6571525482</v>
+      </c>
+      <c r="S18">
+        <v>3.750724388997561E-05</v>
+      </c>
+      <c r="T18">
+        <v>3.153925789423351E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>20.472042</v>
+      </c>
+      <c r="H19">
+        <v>40.944084</v>
+      </c>
+      <c r="I19">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J19">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.3904073333333333</v>
+      </c>
+      <c r="N19">
+        <v>1.171222</v>
+      </c>
+      <c r="O19">
+        <v>0.2465009964981815</v>
+      </c>
+      <c r="P19">
+        <v>0.3097675173916965</v>
+      </c>
+      <c r="Q19">
+        <v>7.992435325108</v>
+      </c>
+      <c r="R19">
+        <v>47.954611950648</v>
+      </c>
+      <c r="S19">
+        <v>0.00273702861079782</v>
+      </c>
+      <c r="T19">
+        <v>0.002301524779401867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>20.472042</v>
+      </c>
+      <c r="H20">
+        <v>40.944084</v>
+      </c>
+      <c r="I20">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J20">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.2176213333333333</v>
+      </c>
+      <c r="N20">
+        <v>0.652864</v>
+      </c>
+      <c r="O20">
+        <v>0.1374048870135541</v>
+      </c>
+      <c r="P20">
+        <v>0.1726709884841751</v>
+      </c>
+      <c r="Q20">
+        <v>4.455153076096001</v>
+      </c>
+      <c r="R20">
+        <v>26.730918456576</v>
+      </c>
+      <c r="S20">
+        <v>0.001525677836447666</v>
+      </c>
+      <c r="T20">
+        <v>0.001282918757997562</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>20.472042</v>
+      </c>
+      <c r="H21">
+        <v>40.944084</v>
+      </c>
+      <c r="I21">
+        <v>0.01110351945704208</v>
+      </c>
+      <c r="J21">
+        <v>0.00742984544919738</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.9704174999999999</v>
+      </c>
+      <c r="N21">
+        <v>1.940835</v>
+      </c>
+      <c r="O21">
+        <v>0.6127161565508692</v>
+      </c>
+      <c r="P21">
+        <v>0.513316552811434</v>
+      </c>
+      <c r="Q21">
+        <v>19.866427817535</v>
+      </c>
+      <c r="R21">
+        <v>79.46571127014001</v>
+      </c>
+      <c r="S21">
+        <v>0.006803305765906618</v>
+      </c>
+      <c r="T21">
+        <v>0.003813862653903719</v>
       </c>
     </row>
   </sheetData>
